--- a/ResultadoEleicoesDistritos/R. A. AÇORES_SANTA CRUZ DA GRACIOSA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_SANTA CRUZ DA GRACIOSA.xlsx
@@ -597,61 +597,61 @@
         <v>1161</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J2" t="n">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T2" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
         <v>5</v>
